--- a/raw_data/20200818_saline/20200818_Sensor0_Test_7.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_7.xlsx
@@ -1,1202 +1,1618 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A2FD5C-B73F-4316-97E1-34CA0B24D6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>5403.155171</v>
+        <v>5403.1551710000003</v>
       </c>
       <c r="B2" s="1">
-        <v>1.500876</v>
+        <v>1.5008760000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.533000</v>
+        <v>902.53300000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.092000</v>
+        <v>-195.09200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5413.254710</v>
+        <v>5413.2547100000002</v>
       </c>
       <c r="G2" s="1">
         <v>1.503682</v>
       </c>
       <c r="H2" s="1">
-        <v>919.400000</v>
+        <v>919.4</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.292000</v>
+        <v>-165.292</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>5424.092793</v>
+        <v>5424.0927929999998</v>
       </c>
       <c r="L2" s="1">
-        <v>1.506692</v>
+        <v>1.5066919999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>941.596000</v>
+        <v>941.596</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.373000</v>
+        <v>-118.373</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>5434.623881</v>
+        <v>5434.6238810000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.509618</v>
+        <v>1.5096179999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.311000</v>
+        <v>948.31100000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.148000</v>
+        <v>-103.148</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>5445.186652</v>
+        <v>5445.1866520000003</v>
       </c>
       <c r="V2" s="1">
-        <v>1.512552</v>
+        <v>1.5125519999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.581000</v>
+        <v>954.58100000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.513800</v>
+        <v>-89.513800000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>5455.648864</v>
+        <v>5455.6488639999998</v>
       </c>
       <c r="AA2" s="1">
         <v>1.515458</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.856000</v>
+        <v>961.85599999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.001100</v>
+        <v>-80.001099999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>5466.231905</v>
+        <v>5466.2319049999996</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.518398</v>
+        <v>1.5183979999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.820000</v>
+        <v>966.82</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.541600</v>
+        <v>-79.541600000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5476.637983</v>
+        <v>5476.6379829999996</v>
       </c>
       <c r="AK2" s="1">
         <v>1.521288</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.766000</v>
+        <v>974.76599999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.259700</v>
+        <v>-87.259699999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>5487.188406</v>
+        <v>5487.1884060000002</v>
       </c>
       <c r="AP2" s="1">
         <v>1.524219</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.976000</v>
+        <v>983.976</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.080000</v>
+        <v>-102.08</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>5498.211746</v>
+        <v>5498.2117459999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.527281</v>
+        <v>1.5272810000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.364000</v>
+        <v>995.36400000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.405000</v>
+        <v>-123.405</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>5509.425047</v>
+        <v>5509.4250469999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.530396</v>
+        <v>1.5303960000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.970000</v>
+        <v>1004.97</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.009000</v>
+        <v>-142.00899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>5520.679736</v>
       </c>
       <c r="BE2" s="1">
-        <v>1.533522</v>
+        <v>1.5335220000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG2" s="1">
-        <v>-225.969000</v>
+        <v>-225.96899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>5531.722665</v>
+        <v>5531.7226650000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.536590</v>
+        <v>1.5365899999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.660000</v>
+        <v>1128.6600000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.880000</v>
+        <v>-360.88</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>5542.626219</v>
+        <v>5542.6262189999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.539618</v>
+        <v>1.5396179999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1258.920000</v>
+        <v>1258.92</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-569.786000</v>
+        <v>-569.78599999999994</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>5553.404285</v>
+        <v>5553.4042849999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.542612</v>
+        <v>1.5426120000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1405.940000</v>
+        <v>1405.94</v>
       </c>
       <c r="BV2" s="1">
-        <v>-793.151000</v>
+        <v>-793.15099999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>5563.975520</v>
+        <v>5563.97552</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.545549</v>
+        <v>1.5455490000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1566.940000</v>
+        <v>1566.94</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1025.810000</v>
+        <v>-1025.81</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>5575.355760</v>
+        <v>5575.3557600000004</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.548710</v>
+        <v>1.54871</v>
       </c>
       <c r="CE2" s="1">
-        <v>1975.170000</v>
+        <v>1975.17</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1567.750000</v>
+        <v>-1567.75</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>5403.259333</v>
       </c>
       <c r="B3" s="1">
-        <v>1.500905</v>
+        <v>1.5009049999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.723000</v>
+        <v>902.72299999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.953000</v>
+        <v>-194.953</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>5413.675349</v>
+        <v>5413.6753490000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1.503799</v>
+        <v>1.5037990000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.748000</v>
+        <v>919.74800000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.550000</v>
+        <v>-165.55</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5424.477191</v>
+        <v>5424.4771909999999</v>
       </c>
       <c r="L3" s="1">
         <v>1.506799</v>
       </c>
       <c r="M3" s="1">
-        <v>941.864000</v>
+        <v>941.86400000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.454000</v>
+        <v>-118.45399999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>5434.991882</v>
+        <v>5434.9918820000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.509720</v>
+        <v>1.50972</v>
       </c>
       <c r="R3" s="1">
-        <v>948.278000</v>
+        <v>948.27800000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.201000</v>
+        <v>-103.20099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>5445.565596</v>
+        <v>5445.5655960000004</v>
       </c>
       <c r="V3" s="1">
-        <v>1.512657</v>
+        <v>1.5126569999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>954.636000</v>
+        <v>954.63599999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.445800</v>
+        <v>-89.445800000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>5456.386813</v>
+        <v>5456.3868130000001</v>
       </c>
       <c r="AA3" s="1">
         <v>1.515663</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.857000</v>
+        <v>961.85699999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.035800</v>
+        <v>-80.035799999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>5466.945194</v>
+        <v>5466.9451939999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.518596</v>
+        <v>1.5185960000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.836000</v>
+        <v>966.83600000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.547800</v>
+        <v>-79.547799999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>5476.975250</v>
+        <v>5476.9752500000004</v>
       </c>
       <c r="AK3" s="1">
         <v>1.521382</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.771000</v>
+        <v>974.77099999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.248300</v>
+        <v>-87.2483</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>5487.560868</v>
+        <v>5487.5608679999996</v>
       </c>
       <c r="AP3" s="1">
         <v>1.524322</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.965000</v>
+        <v>983.96500000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.068000</v>
+        <v>-102.068</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>5498.633585</v>
+        <v>5498.6335849999996</v>
       </c>
       <c r="AU3" s="1">
         <v>1.527398</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.352000</v>
+        <v>995.35199999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.420000</v>
+        <v>-123.42</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>5510.085686</v>
+        <v>5510.0856860000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.530579</v>
+        <v>1.5305789999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.960000</v>
+        <v>1004.96</v>
       </c>
       <c r="BB3" s="1">
-        <v>-141.986000</v>
+        <v>-141.98599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>5521.125143</v>
+        <v>5521.1251430000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>1.533646</v>
+        <v>1.5336460000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.010000</v>
+        <v>1050.01</v>
       </c>
       <c r="BG3" s="1">
-        <v>-225.978000</v>
+        <v>-225.97800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>5531.834265</v>
+        <v>5531.8342650000004</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.536621</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.690000</v>
+        <v>1128.69</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.907000</v>
+        <v>-360.90699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>5543.062698</v>
+        <v>5543.0626979999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>1.539740</v>
+        <v>1.5397400000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1258.910000</v>
+        <v>1258.9100000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-569.795000</v>
+        <v>-569.79499999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>5553.856140</v>
+        <v>5553.8561399999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.542738</v>
+        <v>1.5427379999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1406.000000</v>
+        <v>1406</v>
       </c>
       <c r="BV3" s="1">
-        <v>-793.187000</v>
+        <v>-793.18700000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>5564.460638</v>
+        <v>5564.4606379999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.545684</v>
+        <v>1.5456840000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1566.790000</v>
+        <v>1566.79</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1025.860000</v>
+        <v>-1025.8599999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>5575.945967</v>
+        <v>5575.9459669999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.548874</v>
+        <v>1.5488740000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1973.870000</v>
+        <v>1973.87</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1569.060000</v>
+        <v>-1569.06</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>5403.611989</v>
       </c>
       <c r="B4" s="1">
-        <v>1.501003</v>
+        <v>1.5010030000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>902.635000</v>
+        <v>902.63499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.134000</v>
+        <v>-195.13399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>5414.016565</v>
+        <v>5414.0165649999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1.503893</v>
+        <v>1.5038929999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>919.482000</v>
+        <v>919.48199999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.327000</v>
+        <v>-165.327</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>5424.824392</v>
+        <v>5424.8243920000004</v>
       </c>
       <c r="L4" s="1">
         <v>1.506896</v>
       </c>
       <c r="M4" s="1">
-        <v>941.822000</v>
+        <v>941.822</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.462000</v>
+        <v>-118.462</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>5435.690779</v>
+        <v>5435.6907789999996</v>
       </c>
       <c r="Q4" s="1">
         <v>1.509914</v>
       </c>
       <c r="R4" s="1">
-        <v>948.284000</v>
+        <v>948.28399999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>5446.253548</v>
+        <v>5446.2535479999997</v>
       </c>
       <c r="V4" s="1">
         <v>1.512848</v>
       </c>
       <c r="W4" s="1">
-        <v>954.673000</v>
+        <v>954.673</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.487100</v>
+        <v>-89.487099999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>5456.735005</v>
+        <v>5456.7350049999995</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.515760</v>
+        <v>1.51576</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.840000</v>
+        <v>961.84</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.048100</v>
+        <v>-80.048100000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>5467.286896</v>
+        <v>5467.2868959999996</v>
       </c>
       <c r="AF4" s="1">
         <v>1.518691</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.819000</v>
+        <v>966.81899999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.529800</v>
+        <v>-79.529799999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>5477.321459</v>
+        <v>5477.3214589999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.521478</v>
+        <v>1.5214780000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.754000</v>
+        <v>974.75400000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.239200</v>
+        <v>-87.239199999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>5488.231955</v>
+        <v>5488.2319550000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>1.524509</v>
+        <v>1.5245089999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.967000</v>
+        <v>983.96699999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.066000</v>
+        <v>-102.066</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>5499.299188</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.527583</v>
+        <v>1.5275829999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.363000</v>
+        <v>995.36300000000006</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.421000</v>
+        <v>-123.42100000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>5510.517205</v>
+        <v>5510.5172050000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.530699</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB4" s="1">
-        <v>-141.978000</v>
+        <v>-141.97800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>5521.485239</v>
+        <v>5521.4852389999996</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.533746</v>
+        <v>1.5337460000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.990000</v>
+        <v>1049.99</v>
       </c>
       <c r="BG4" s="1">
-        <v>-225.966000</v>
+        <v>-225.96600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>5532.210729</v>
+        <v>5532.2107290000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.536725</v>
+        <v>1.5367249999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.846000</v>
+        <v>-360.846</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>5543.459498</v>
+        <v>5543.4594980000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>1.539850</v>
+        <v>1.5398499999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1258.890000</v>
+        <v>1258.8900000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-569.760000</v>
+        <v>-569.76</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>5554.283195</v>
@@ -1205,285 +1621,285 @@
         <v>1.542856</v>
       </c>
       <c r="BU4" s="1">
-        <v>1405.920000</v>
+        <v>1405.92</v>
       </c>
       <c r="BV4" s="1">
-        <v>-793.238000</v>
+        <v>-793.23800000000006</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>5564.909485</v>
+        <v>5564.9094850000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.545808</v>
+        <v>1.5458080000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1566.780000</v>
+        <v>1566.78</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1026.010000</v>
+        <v>-1026.01</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>5576.489118</v>
+        <v>5576.4891180000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.549025</v>
+        <v>1.5490250000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1975.510000</v>
+        <v>1975.51</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1568.780000</v>
+        <v>-1568.78</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>5403.954227</v>
+        <v>5403.9542270000002</v>
       </c>
       <c r="B5" s="1">
         <v>1.501098</v>
       </c>
       <c r="C5" s="1">
-        <v>902.653000</v>
+        <v>902.65300000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.083000</v>
+        <v>-195.083</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5414.363268</v>
+        <v>5414.3632680000001</v>
       </c>
       <c r="G5" s="1">
-        <v>1.503990</v>
+        <v>1.5039899999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>919.451000</v>
+        <v>919.45100000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.443000</v>
+        <v>-165.44300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>5425.515815</v>
+        <v>5425.5158149999997</v>
       </c>
       <c r="L5" s="1">
         <v>1.507088</v>
       </c>
       <c r="M5" s="1">
-        <v>941.714000</v>
+        <v>941.71400000000006</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.263000</v>
+        <v>-118.26300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>5436.038936</v>
+        <v>5436.0389359999999</v>
       </c>
       <c r="Q5" s="1">
         <v>1.510011</v>
       </c>
       <c r="R5" s="1">
-        <v>948.249000</v>
+        <v>948.24900000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.137000</v>
+        <v>-103.137</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>5446.595322</v>
+        <v>5446.5953220000001</v>
       </c>
       <c r="V5" s="1">
-        <v>1.512943</v>
+        <v>1.5129429999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>954.640000</v>
+        <v>954.64</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.538900</v>
+        <v>-89.538899999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>5457.082706</v>
+        <v>5457.0827060000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.515856</v>
+        <v>1.5158560000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.939000</v>
+        <v>961.93899999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.055300</v>
+        <v>-80.055300000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>5467.629145</v>
+        <v>5467.6291449999999</v>
       </c>
       <c r="AF5" s="1">
         <v>1.518786</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.813000</v>
+        <v>966.81299999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.516000</v>
+        <v>-79.516000000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>5477.985638</v>
+        <v>5477.9856380000001</v>
       </c>
       <c r="AK5" s="1">
         <v>1.521663</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.766000</v>
+        <v>974.76599999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.248100</v>
+        <v>-87.248099999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>5488.670418</v>
+        <v>5488.6704179999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.524631</v>
+        <v>1.5246310000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.970000</v>
+        <v>983.97</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.078000</v>
+        <v>-102.078</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>5499.755012</v>
+        <v>5499.7550119999996</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.527710</v>
+        <v>1.5277099999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.373000</v>
+        <v>995.37300000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.431000</v>
+        <v>-123.431</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>5510.894050</v>
+        <v>5510.8940499999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.530804</v>
+        <v>1.5308040000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-141.999000</v>
+        <v>-141.999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>5521.847320</v>
+        <v>5521.8473199999999</v>
       </c>
       <c r="BE5" s="1">
         <v>1.533846</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.980000</v>
+        <v>1049.98</v>
       </c>
       <c r="BG5" s="1">
-        <v>-225.956000</v>
+        <v>-225.95599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>5532.584712</v>
+        <v>5532.5847119999999</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.536829</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.905000</v>
+        <v>-360.90499999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>5543.880105</v>
+        <v>5543.8801050000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.539967</v>
+        <v>1.5399670000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1258.900000</v>
+        <v>1258.9000000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-569.820000</v>
+        <v>-569.82000000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>5554.696364</v>
+        <v>5554.6963640000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.542971</v>
+        <v>1.5429710000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1405.890000</v>
+        <v>1405.89</v>
       </c>
       <c r="BV5" s="1">
-        <v>-793.247000</v>
+        <v>-793.24699999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>5565.330621</v>
+        <v>5565.3306210000001</v>
       </c>
       <c r="BY5" s="1">
         <v>1.545925</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1566.830000</v>
+        <v>1566.83</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1025.940000</v>
+        <v>-1025.94</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>5577.030221</v>
@@ -1492,16 +1908,16 @@
         <v>1.549175</v>
       </c>
       <c r="CE5" s="1">
-        <v>1974.170000</v>
+        <v>1974.17</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1567.770000</v>
+        <v>-1567.77</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>5404.636872</v>
       </c>
@@ -1509,557 +1925,557 @@
         <v>1.501288</v>
       </c>
       <c r="C6" s="1">
-        <v>902.676000</v>
+        <v>902.67600000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.086000</v>
+        <v>-195.08600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>5415.051251</v>
+        <v>5415.0512509999999</v>
       </c>
       <c r="G6" s="1">
         <v>1.504181</v>
       </c>
       <c r="H6" s="1">
-        <v>919.989000</v>
+        <v>919.98900000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.516000</v>
+        <v>-165.51599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>5425.860533</v>
       </c>
       <c r="L6" s="1">
-        <v>1.507183</v>
+        <v>1.5071829999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>941.657000</v>
+        <v>941.65700000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.482000</v>
+        <v>-118.482</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>5436.383921</v>
+        <v>5436.3839209999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.510107</v>
+        <v>1.5101070000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.303000</v>
+        <v>948.303</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.155000</v>
+        <v>-103.155</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>5446.938555</v>
+        <v>5446.9385549999997</v>
       </c>
       <c r="V6" s="1">
-        <v>1.513038</v>
+        <v>1.5130380000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>954.663000</v>
+        <v>954.66300000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.544700</v>
+        <v>-89.544700000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>5457.741419</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.516039</v>
+        <v>1.5160389999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.862000</v>
+        <v>961.86199999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.980700</v>
+        <v>-79.980699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>5468.076527</v>
+        <v>5468.0765270000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.518910</v>
+        <v>1.51891</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.805000</v>
+        <v>966.80499999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.537000</v>
+        <v>-79.537000000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5478.367025</v>
+        <v>5478.3670249999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>1.521769</v>
+        <v>1.5217689999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.768000</v>
+        <v>974.76800000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.272200</v>
+        <v>-87.272199999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>5489.030018</v>
+        <v>5489.0300180000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.524731</v>
+        <v>1.5247310000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.952000</v>
+        <v>983.952</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>5500.123044</v>
+        <v>5500.1230439999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.527812</v>
+        <v>1.5278119999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.362000</v>
+        <v>995.36199999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.421000</v>
+        <v>-123.42100000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>5511.272149</v>
+        <v>5511.2721490000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.530909</v>
+        <v>1.5309090000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.970000</v>
+        <v>1004.97</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.001000</v>
+        <v>-142.001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>5522.263462</v>
+        <v>5522.2634619999999</v>
       </c>
       <c r="BE6" s="1">
         <v>1.533962</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.980000</v>
+        <v>1049.98</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.003000</v>
+        <v>-226.00299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>5533.003864</v>
+        <v>5533.0038640000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.536946</v>
+        <v>1.5369459999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.660000</v>
+        <v>1128.6600000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.884000</v>
+        <v>-360.88400000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>5544.278419</v>
+        <v>5544.2784190000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.540077</v>
+        <v>1.5400769999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1258.940000</v>
+        <v>1258.94</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-569.816000</v>
+        <v>-569.81600000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>5555.111552</v>
+        <v>5555.1115520000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.543087</v>
+        <v>1.5430870000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1405.910000</v>
+        <v>1405.91</v>
       </c>
       <c r="BV6" s="1">
-        <v>-793.325000</v>
+        <v>-793.32500000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>5565.751694</v>
+        <v>5565.7516939999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.546042</v>
+        <v>1.5460419999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1566.940000</v>
+        <v>1566.94</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1026.010000</v>
+        <v>-1026.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>5577.567921</v>
+        <v>5577.5679209999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.549324</v>
+        <v>1.5493239999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1975.070000</v>
+        <v>1975.07</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1569.730000</v>
+        <v>-1569.73</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>5404.982929</v>
+        <v>5404.9829289999998</v>
       </c>
       <c r="B7" s="1">
-        <v>1.501384</v>
+        <v>1.5013840000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>902.618000</v>
+        <v>902.61800000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.010000</v>
+        <v>-195.01</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>5415.395941</v>
+        <v>5415.3959409999998</v>
       </c>
       <c r="G7" s="1">
-        <v>1.504277</v>
+        <v>1.5042770000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>919.592000</v>
+        <v>919.59199999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.219000</v>
+        <v>-165.21899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>5426.208229</v>
+        <v>5426.2082289999998</v>
       </c>
       <c r="L7" s="1">
-        <v>1.507280</v>
+        <v>1.50728</v>
       </c>
       <c r="M7" s="1">
-        <v>941.756000</v>
+        <v>941.75599999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.364000</v>
+        <v>-118.364</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>5437.035398</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.510288</v>
+        <v>1.5102880000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.312000</v>
+        <v>948.31200000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.165000</v>
+        <v>-103.16500000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>5447.593240</v>
+        <v>5447.5932400000002</v>
       </c>
       <c r="V7" s="1">
-        <v>1.513220</v>
+        <v>1.51322</v>
       </c>
       <c r="W7" s="1">
-        <v>954.600000</v>
+        <v>954.6</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.482100</v>
+        <v>-89.482100000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>5458.131246</v>
+        <v>5458.1312459999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.516148</v>
+        <v>1.5161480000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.657000</v>
+        <v>961.65700000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.986200</v>
+        <v>-79.986199999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>5468.320590</v>
+        <v>5468.3205900000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.518978</v>
+        <v>1.5189779999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.814000</v>
+        <v>966.81399999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.510900</v>
+        <v>-79.510900000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>5478.719215</v>
+        <v>5478.7192150000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.521866</v>
+        <v>1.5218659999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.764000</v>
+        <v>974.76400000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.280300</v>
+        <v>-87.280299999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>5489.392097</v>
+        <v>5489.3920969999999</v>
       </c>
       <c r="AP7" s="1">
         <v>1.524831</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.986000</v>
+        <v>983.98599999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>5500.485123</v>
+        <v>5500.4851230000004</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.527913</v>
+        <v>1.5279130000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.377000</v>
+        <v>995.37699999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.420000</v>
+        <v>-123.42</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>5511.688765</v>
+        <v>5511.6887649999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.531025</v>
+        <v>1.5310250000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.970000</v>
+        <v>1004.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-141.989000</v>
+        <v>-141.989</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>5522.569989</v>
+        <v>5522.5699889999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.534047</v>
+        <v>1.5340469999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG7" s="1">
-        <v>-225.964000</v>
+        <v>-225.964</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>5533.336152</v>
+        <v>5533.3361519999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.537038</v>
+        <v>1.5370379999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.670000</v>
+        <v>1128.67</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.899000</v>
+        <v>-360.899</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>5544.695555</v>
+        <v>5544.6955550000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.540193</v>
+        <v>1.5401929999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1258.890000</v>
+        <v>1258.8900000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-569.800000</v>
+        <v>-569.79999999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>5555.523298</v>
+        <v>5555.5232980000001</v>
       </c>
       <c r="BT7" s="1">
         <v>1.543201</v>
       </c>
       <c r="BU7" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="BV7" s="1">
-        <v>-793.422000</v>
+        <v>-793.42200000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>5566.180236</v>
+        <v>5566.1802360000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.546161</v>
+        <v>1.5461609999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1566.910000</v>
+        <v>1566.91</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1025.900000</v>
+        <v>-1025.9000000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>5578.108028</v>
+        <v>5578.1080279999996</v>
       </c>
       <c r="CD7" s="1">
         <v>1.549474</v>
       </c>
       <c r="CE7" s="1">
-        <v>1975.420000</v>
+        <v>1975.42</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1567.410000</v>
+        <v>-1567.41</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>5405.326160</v>
+        <v>5405.3261599999996</v>
       </c>
       <c r="B8" s="1">
         <v>1.501479</v>
       </c>
       <c r="C8" s="1">
-        <v>902.627000</v>
+        <v>902.62699999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.174000</v>
+        <v>-195.17400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>5415.738707</v>
+        <v>5415.7387070000004</v>
       </c>
       <c r="G8" s="1">
         <v>1.504372</v>
       </c>
       <c r="H8" s="1">
-        <v>919.984000</v>
+        <v>919.98400000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.584000</v>
+        <v>-165.584</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>5426.856500</v>
+        <v>5426.8564999999999</v>
       </c>
       <c r="L8" s="1">
-        <v>1.507460</v>
+        <v>1.50746</v>
       </c>
       <c r="M8" s="1">
-        <v>941.749000</v>
+        <v>941.74900000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.240000</v>
+        <v>-118.24</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>5437.430214</v>
@@ -2068,692 +2484,692 @@
         <v>1.510397</v>
       </c>
       <c r="R8" s="1">
-        <v>948.300000</v>
+        <v>948.3</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.213000</v>
+        <v>-103.21299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>5447.973176</v>
+        <v>5447.9731760000004</v>
       </c>
       <c r="V8" s="1">
-        <v>1.513326</v>
+        <v>1.5133259999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.720000</v>
+        <v>954.72</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.416800</v>
+        <v>-89.416799999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>5458.474474</v>
+        <v>5458.4744739999996</v>
       </c>
       <c r="AA8" s="1">
         <v>1.516243</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.846000</v>
+        <v>961.846</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.022900</v>
+        <v>-80.022900000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>5468.663789</v>
+        <v>5468.6637890000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.519073</v>
+        <v>1.5190729999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.865000</v>
+        <v>966.86500000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.556600</v>
+        <v>-79.556600000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>5479.066384</v>
+        <v>5479.0663839999997</v>
       </c>
       <c r="AK8" s="1">
         <v>1.521963</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.763000</v>
+        <v>974.76300000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.249000</v>
+        <v>-87.248999999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>5489.813201</v>
+        <v>5489.8132009999999</v>
       </c>
       <c r="AP8" s="1">
         <v>1.524948</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.995000</v>
+        <v>983.995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.059000</v>
+        <v>-102.059</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>5500.946935</v>
+        <v>5500.9469349999999</v>
       </c>
       <c r="AU8" s="1">
         <v>1.528041</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.356000</v>
+        <v>995.35599999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.430000</v>
+        <v>-123.43</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>5511.987875</v>
+        <v>5511.9878749999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.531108</v>
+        <v>1.5311079999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.960000</v>
+        <v>1004.96</v>
       </c>
       <c r="BB8" s="1">
-        <v>-141.994000</v>
+        <v>-141.994</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>5522.929094</v>
+        <v>5522.9290940000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>1.534147</v>
+        <v>1.5341469999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.010000</v>
+        <v>1050.01</v>
       </c>
       <c r="BG8" s="1">
-        <v>-225.964000</v>
+        <v>-225.964</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>5533.726999</v>
+        <v>5533.7269990000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.537146</v>
+        <v>1.5371459999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.895000</v>
+        <v>-360.89499999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>5545.093847</v>
+        <v>5545.0938470000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.540304</v>
+        <v>1.5403039999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1258.900000</v>
+        <v>1258.9000000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-569.823000</v>
+        <v>-569.82299999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>5555.941321</v>
+        <v>5555.9413210000002</v>
       </c>
       <c r="BT8" s="1">
         <v>1.543317</v>
       </c>
       <c r="BU8" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="BV8" s="1">
-        <v>-793.409000</v>
+        <v>-793.40899999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>5566.594892</v>
+        <v>5566.5948920000001</v>
       </c>
       <c r="BY8" s="1">
         <v>1.546276</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1566.810000</v>
+        <v>1566.81</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1026.060000</v>
+        <v>-1026.06</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>5578.647675</v>
+        <v>5578.6476750000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.549624</v>
+        <v>1.5496239999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1974.090000</v>
+        <v>1974.09</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1569.490000</v>
+        <v>-1569.49</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>5405.976448</v>
+        <v>5405.9764480000003</v>
       </c>
       <c r="B9" s="1">
-        <v>1.501660</v>
+        <v>1.50166</v>
       </c>
       <c r="C9" s="1">
-        <v>902.474000</v>
+        <v>902.47400000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.278000</v>
+        <v>-195.27799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>5416.408275</v>
+        <v>5416.4082749999998</v>
       </c>
       <c r="G9" s="1">
-        <v>1.504558</v>
+        <v>1.5045580000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>919.749000</v>
+        <v>919.74900000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.342000</v>
+        <v>-165.34200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>5427.241395</v>
       </c>
       <c r="L9" s="1">
-        <v>1.507567</v>
+        <v>1.5075670000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>941.746000</v>
+        <v>941.74599999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.254000</v>
+        <v>-118.254</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>5437.781382</v>
+        <v>5437.7813820000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.510495</v>
+        <v>1.5104949999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.282000</v>
+        <v>948.28200000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.196000</v>
+        <v>-103.196</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>5448.312439</v>
+        <v>5448.3124390000003</v>
       </c>
       <c r="V9" s="1">
-        <v>1.513420</v>
+        <v>1.51342</v>
       </c>
       <c r="W9" s="1">
-        <v>954.719000</v>
+        <v>954.71900000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.544300</v>
+        <v>-89.544300000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>5458.828122</v>
+        <v>5458.8281219999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.516341</v>
+        <v>1.5163409999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.808000</v>
+        <v>961.80799999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.032800</v>
+        <v>-80.032799999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>5469.085921</v>
+        <v>5469.0859209999999</v>
       </c>
       <c r="AF9" s="1">
         <v>1.519191</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.832000</v>
+        <v>966.83199999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.513900</v>
+        <v>-79.513900000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>5479.491983</v>
+        <v>5479.4919829999999</v>
       </c>
       <c r="AK9" s="1">
         <v>1.522081</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.764000</v>
+        <v>974.76400000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.272200</v>
+        <v>-87.272199999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>5490.112289</v>
+        <v>5490.1122889999997</v>
       </c>
       <c r="AP9" s="1">
         <v>1.525031</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.955000</v>
+        <v>983.95500000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>5501.241553</v>
+        <v>5501.2415529999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.528123</v>
+        <v>1.5281229999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.344000</v>
+        <v>995.34400000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.409000</v>
+        <v>-123.40900000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>5512.347443</v>
+        <v>5512.3474429999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.531208</v>
+        <v>1.5312079999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB9" s="1">
-        <v>-141.986000</v>
+        <v>-141.98599999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>5523.292850</v>
+        <v>5523.2928499999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.534248</v>
+        <v>1.5342480000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.990000</v>
+        <v>1049.99</v>
       </c>
       <c r="BG9" s="1">
-        <v>-225.953000</v>
+        <v>-225.953</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>5534.112391</v>
+        <v>5534.1123909999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.537253</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.700000</v>
+        <v>1128.7</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.890000</v>
+        <v>-360.89</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>5545.516407</v>
+        <v>5545.5164070000001</v>
       </c>
       <c r="BO9" s="1">
         <v>1.540421</v>
       </c>
       <c r="BP9" s="1">
-        <v>1258.910000</v>
+        <v>1258.9100000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-569.877000</v>
+        <v>-569.87699999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>5556.355977</v>
+        <v>5556.3559770000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.543432</v>
+        <v>1.5434319999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="BV9" s="1">
-        <v>-793.456000</v>
+        <v>-793.45600000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>5567.050716</v>
+        <v>5567.0507159999997</v>
       </c>
       <c r="BY9" s="1">
         <v>1.546403</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1566.900000</v>
+        <v>1566.9</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1026.020000</v>
+        <v>-1026.02</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>5579.187963</v>
+        <v>5579.1879630000003</v>
       </c>
       <c r="CD9" s="1">
         <v>1.549774</v>
       </c>
       <c r="CE9" s="1">
-        <v>1975.720000</v>
+        <v>1975.72</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1569.120000</v>
+        <v>-1569.12</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>5406.347955</v>
+        <v>5406.3479550000002</v>
       </c>
       <c r="B10" s="1">
         <v>1.501763</v>
       </c>
       <c r="C10" s="1">
-        <v>902.688000</v>
+        <v>902.68799999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.054000</v>
+        <v>-195.054</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>5416.774850</v>
+        <v>5416.7748499999998</v>
       </c>
       <c r="G10" s="1">
-        <v>1.504660</v>
+        <v>1.5046600000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.698000</v>
+        <v>919.69799999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.225000</v>
+        <v>-165.22499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>5427.587639</v>
+        <v>5427.5876390000003</v>
       </c>
       <c r="L10" s="1">
         <v>1.507663</v>
       </c>
       <c r="M10" s="1">
-        <v>941.769000</v>
+        <v>941.76900000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.337000</v>
+        <v>-118.337</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>5438.127589</v>
+        <v>5438.1275889999997</v>
       </c>
       <c r="Q10" s="1">
         <v>1.510591</v>
       </c>
       <c r="R10" s="1">
-        <v>948.251000</v>
+        <v>948.25099999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.160000</v>
+        <v>-103.16</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>5448.657159</v>
+        <v>5448.6571590000003</v>
       </c>
       <c r="V10" s="1">
-        <v>1.513516</v>
+        <v>1.5135160000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.621000</v>
+        <v>954.62099999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.417300</v>
+        <v>-89.417299999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>5459.242777</v>
+        <v>5459.2427770000004</v>
       </c>
       <c r="AA10" s="1">
         <v>1.516456</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.863000</v>
+        <v>961.86300000000006</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.128400</v>
+        <v>-80.128399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>5469.360171</v>
+        <v>5469.3601710000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.519267</v>
+        <v>1.5192669999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.813000</v>
+        <v>966.81299999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.521400</v>
+        <v>-79.5214</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>5479.772190</v>
+        <v>5479.7721899999997</v>
       </c>
       <c r="AK10" s="1">
         <v>1.522159</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.758000</v>
+        <v>974.75800000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.265500</v>
+        <v>-87.265500000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>5490.471392</v>
+        <v>5490.4713920000004</v>
       </c>
       <c r="AP10" s="1">
         <v>1.525131</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.983000</v>
+        <v>983.98299999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.084000</v>
+        <v>-102.084</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>5501.578043</v>
+        <v>5501.5780430000004</v>
       </c>
       <c r="AU10" s="1">
         <v>1.528216</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.371000</v>
+        <v>995.37099999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.413000</v>
+        <v>-123.413</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>5512.708530</v>
+        <v>5512.7085299999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.531308</v>
+        <v>1.5313079999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.006000</v>
+        <v>-142.006</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>5524.017813</v>
+        <v>5524.0178130000004</v>
       </c>
       <c r="BE10" s="1">
         <v>1.534449</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG10" s="1">
-        <v>-225.950000</v>
+        <v>-225.95</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>5534.865317</v>
+        <v>5534.8653169999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.537463</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.640000</v>
+        <v>1128.6400000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.883000</v>
+        <v>-360.88299999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>5545.914696</v>
+        <v>5545.9146959999998</v>
       </c>
       <c r="BO10" s="1">
         <v>1.540532</v>
       </c>
       <c r="BP10" s="1">
-        <v>1258.960000</v>
+        <v>1258.96</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-569.842000</v>
+        <v>-569.84199999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>5556.768185</v>
+        <v>5556.7681849999999</v>
       </c>
       <c r="BT10" s="1">
         <v>1.543547</v>
       </c>
       <c r="BU10" s="1">
-        <v>1405.860000</v>
+        <v>1405.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-793.558000</v>
+        <v>-793.55799999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>5567.497147</v>
@@ -2762,180 +3178,180 @@
         <v>1.546527</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1566.860000</v>
+        <v>1566.86</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1026.040000</v>
+        <v>-1026.04</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>5580.039450</v>
+        <v>5580.0394500000002</v>
       </c>
       <c r="CD10" s="1">
         <v>1.550011</v>
       </c>
       <c r="CE10" s="1">
-        <v>1974.440000</v>
+        <v>1974.44</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1569.840000</v>
+        <v>-1569.84</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>5406.693135</v>
+        <v>5406.6931350000004</v>
       </c>
       <c r="B11" s="1">
-        <v>1.501859</v>
+        <v>1.5018590000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>902.777000</v>
+        <v>902.77700000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.245000</v>
+        <v>-195.245</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5417.117057</v>
+        <v>5417.1170570000004</v>
       </c>
       <c r="G11" s="1">
-        <v>1.504755</v>
+        <v>1.5047550000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.551000</v>
+        <v>919.55100000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.059000</v>
+        <v>-165.059</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>5427.936308</v>
+        <v>5427.9363080000003</v>
       </c>
       <c r="L11" s="1">
-        <v>1.507760</v>
+        <v>1.50776</v>
       </c>
       <c r="M11" s="1">
-        <v>941.687000</v>
+        <v>941.68700000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.348000</v>
+        <v>-118.348</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>5438.538309</v>
+        <v>5438.5383089999996</v>
       </c>
       <c r="Q11" s="1">
         <v>1.510705</v>
       </c>
       <c r="R11" s="1">
-        <v>948.303000</v>
+        <v>948.303</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.156000</v>
+        <v>-103.15600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>5449.074818</v>
+        <v>5449.0748180000001</v>
       </c>
       <c r="V11" s="1">
-        <v>1.513632</v>
+        <v>1.5136320000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>954.669000</v>
+        <v>954.66899999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.463400</v>
+        <v>-89.463399999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>5459.523512</v>
+        <v>5459.5235119999998</v>
       </c>
       <c r="AA11" s="1">
         <v>1.516534</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.867000</v>
+        <v>961.86699999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.116500</v>
+        <v>-80.116500000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>5469.704395</v>
+        <v>5469.7043949999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.519362</v>
+        <v>1.5193620000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.866000</v>
+        <v>966.86599999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.539300</v>
+        <v>-79.539299999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>5480.120879</v>
+        <v>5480.1208790000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.522256</v>
+        <v>1.5222560000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.772000</v>
+        <v>974.77200000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.300500</v>
+        <v>-87.3005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>5490.830992</v>
+        <v>5490.8309920000002</v>
       </c>
       <c r="AP11" s="1">
         <v>1.525231</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.984000</v>
+        <v>983.98400000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.073000</v>
+        <v>-102.07299999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>5502.309409</v>
+        <v>5502.3094090000004</v>
       </c>
       <c r="AU11" s="1">
         <v>1.528419</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.364000</v>
+        <v>995.36400000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.422000</v>
+        <v>-123.422</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>5513.424258</v>
@@ -2944,28 +3360,28 @@
         <v>1.531507</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.970000</v>
+        <v>1004.97</v>
       </c>
       <c r="BB11" s="1">
-        <v>-141.983000</v>
+        <v>-141.983</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>5524.394810</v>
+        <v>5524.3948099999998</v>
       </c>
       <c r="BE11" s="1">
         <v>1.534554</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.980000</v>
+        <v>1049.98</v>
       </c>
       <c r="BG11" s="1">
-        <v>-225.994000</v>
+        <v>-225.994</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>5535.238805</v>
@@ -2974,43 +3390,43 @@
         <v>1.537566</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.660000</v>
+        <v>1128.6600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.916000</v>
+        <v>-360.916</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>5546.330383</v>
+        <v>5546.3303830000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.540647</v>
+        <v>1.5406470000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1258.900000</v>
+        <v>1258.9000000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-569.802000</v>
+        <v>-569.80200000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>5557.484871</v>
+        <v>5557.4848709999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.543746</v>
+        <v>1.5437460000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="BV11" s="1">
-        <v>-793.448000</v>
+        <v>-793.44799999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>5568.310058</v>
@@ -3019,559 +3435,559 @@
         <v>1.546753</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1566.890000</v>
+        <v>1566.89</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1026.040000</v>
+        <v>-1026.04</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>5580.268614</v>
+        <v>5580.2686139999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.550075</v>
+        <v>1.5500750000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1974.300000</v>
+        <v>1974.3</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1569.290000</v>
+        <v>-1569.29</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>5407.034382</v>
+        <v>5407.0343819999998</v>
       </c>
       <c r="B12" s="1">
         <v>1.501954</v>
       </c>
       <c r="C12" s="1">
-        <v>902.743000</v>
+        <v>902.74300000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.033000</v>
+        <v>-195.03299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>5417.467233</v>
+        <v>5417.4672330000003</v>
       </c>
       <c r="G12" s="1">
-        <v>1.504852</v>
+        <v>1.5048520000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>919.689000</v>
+        <v>919.68899999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.212000</v>
+        <v>-165.21199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>5428.359874</v>
+        <v>5428.3598739999998</v>
       </c>
       <c r="L12" s="1">
-        <v>1.507878</v>
+        <v>1.5078780000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>941.761000</v>
+        <v>941.76099999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.497000</v>
+        <v>-118.497</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>5438.833752</v>
+        <v>5438.8337519999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.510787</v>
+        <v>1.5107870000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.278000</v>
+        <v>948.27800000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>5449.368950</v>
+        <v>5449.36895</v>
       </c>
       <c r="V12" s="1">
         <v>1.513714</v>
       </c>
       <c r="W12" s="1">
-        <v>954.606000</v>
+        <v>954.60599999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.500100</v>
+        <v>-89.500100000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>5459.873688</v>
+        <v>5459.8736879999997</v>
       </c>
       <c r="AA12" s="1">
         <v>1.516632</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.935000</v>
+        <v>961.93499999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.069100</v>
+        <v>-80.069100000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>5470.048651</v>
+        <v>5470.0486510000001</v>
       </c>
       <c r="AF12" s="1">
         <v>1.519458</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.842000</v>
+        <v>966.84199999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.577000</v>
+        <v>-79.576999999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5480.471053</v>
+        <v>5480.4710530000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.522353</v>
+        <v>1.5223530000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.764000</v>
+        <v>974.76400000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.267000</v>
+        <v>-87.266999999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>5491.559616</v>
+        <v>5491.5596159999996</v>
       </c>
       <c r="AP12" s="1">
         <v>1.525433</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.977000</v>
+        <v>983.97699999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>5502.699265</v>
+        <v>5502.6992650000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.528528</v>
+        <v>1.5285280000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.366000</v>
+        <v>995.36599999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.426000</v>
+        <v>-123.426</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>5513.783361</v>
+        <v>5513.7833609999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>1.531606</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB12" s="1">
-        <v>-141.998000</v>
+        <v>-141.99799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>5524.756354</v>
+        <v>5524.7563540000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.534655</v>
+        <v>1.5346550000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.010000</v>
+        <v>1050.01</v>
       </c>
       <c r="BG12" s="1">
-        <v>-225.974000</v>
+        <v>-225.97399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>5535.925128</v>
+        <v>5535.9251279999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>1.537757</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.895000</v>
+        <v>-360.89499999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>5547.037141</v>
+        <v>5547.0371409999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.540844</v>
+        <v>1.5408440000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1258.880000</v>
+        <v>1258.8800000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-569.882000</v>
+        <v>-569.88199999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>5557.598951</v>
+        <v>5557.5989509999999</v>
       </c>
       <c r="BT12" s="1">
         <v>1.543777</v>
       </c>
       <c r="BU12" s="1">
-        <v>1405.720000</v>
+        <v>1405.72</v>
       </c>
       <c r="BV12" s="1">
-        <v>-793.541000</v>
+        <v>-793.54100000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>5568.761914</v>
+        <v>5568.7619139999997</v>
       </c>
       <c r="BY12" s="1">
         <v>1.546878</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1566.810000</v>
+        <v>1566.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1025.970000</v>
+        <v>-1025.97</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>5580.786921</v>
+        <v>5580.7869209999999</v>
       </c>
       <c r="CD12" s="1">
         <v>1.550219</v>
       </c>
       <c r="CE12" s="1">
-        <v>1975.780000</v>
+        <v>1975.78</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1569.290000</v>
+        <v>-1569.29</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>5407.444574</v>
+        <v>5407.4445740000001</v>
       </c>
       <c r="B13" s="1">
         <v>1.502068</v>
       </c>
       <c r="C13" s="1">
-        <v>902.638000</v>
+        <v>902.63800000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.147000</v>
+        <v>-195.14699999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>5418.155185</v>
+        <v>5418.1551849999996</v>
       </c>
       <c r="G13" s="1">
-        <v>1.505043</v>
+        <v>1.5050429999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>919.787000</v>
+        <v>919.78700000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.365000</v>
+        <v>-165.36500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>5428.639122</v>
+        <v>5428.6391219999996</v>
       </c>
       <c r="L13" s="1">
-        <v>1.507955</v>
+        <v>1.5079549999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.747000</v>
+        <v>941.74699999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.395000</v>
+        <v>-118.395</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>5439.179135</v>
+        <v>5439.1791350000003</v>
       </c>
       <c r="Q13" s="1">
         <v>1.510883</v>
       </c>
       <c r="R13" s="1">
-        <v>948.287000</v>
+        <v>948.28700000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.148000</v>
+        <v>-103.148</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>5449.715127</v>
+        <v>5449.7151270000004</v>
       </c>
       <c r="V13" s="1">
-        <v>1.513810</v>
+        <v>1.5138100000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>954.635000</v>
+        <v>954.63499999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.450100</v>
+        <v>-89.450100000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>5460.222376</v>
+        <v>5460.2223759999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.516728</v>
+        <v>1.5167280000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.818000</v>
+        <v>961.81799999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.995200</v>
+        <v>-79.995199999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>5470.734619</v>
+        <v>5470.7346189999998</v>
       </c>
       <c r="AF13" s="1">
         <v>1.519649</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.850000</v>
+        <v>966.85</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.563100</v>
+        <v>-79.563100000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>5481.164956</v>
+        <v>5481.1649559999996</v>
       </c>
       <c r="AK13" s="1">
         <v>1.522546</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.772000</v>
+        <v>974.77200000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.252300</v>
+        <v>-87.252300000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>5491.934122</v>
+        <v>5491.9341219999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.525537</v>
+        <v>1.5255369999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.963000</v>
+        <v>983.96299999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>5503.062863</v>
+        <v>5503.0628630000001</v>
       </c>
       <c r="AU13" s="1">
         <v>1.528629</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.356000</v>
+        <v>995.35599999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.411000</v>
+        <v>-123.411</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>5514.143758</v>
+        <v>5514.1437580000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.531707</v>
+        <v>1.5317069999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.000000</v>
+        <v>1005</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.010000</v>
+        <v>-142.01</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>5525.427939</v>
+        <v>5525.4279390000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.534841</v>
+        <v>1.5348409999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG13" s="1">
-        <v>-225.988000</v>
+        <v>-225.988</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>5536.396963</v>
+        <v>5536.3969630000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.537888</v>
+        <v>1.5378879999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.700000</v>
+        <v>1128.7</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.906000</v>
+        <v>-360.90600000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>5547.165637</v>
+        <v>5547.1656370000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.540879</v>
+        <v>1.5408790000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1258.890000</v>
+        <v>1258.8900000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-569.842000</v>
+        <v>-569.84199999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>5558.038434</v>
+        <v>5558.0384340000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.543900</v>
+        <v>1.5439000000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1405.680000</v>
+        <v>1405.68</v>
       </c>
       <c r="BV13" s="1">
-        <v>-793.570000</v>
+        <v>-793.57</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>5569.210327</v>
+        <v>5569.2103269999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.547003</v>
+        <v>1.5470029999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1566.760000</v>
+        <v>1566.76</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1026.150000</v>
+        <v>-1026.1500000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>5581.305273</v>
+        <v>5581.3052729999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>1.550363</v>
+        <v>1.5503629999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1975.260000</v>
+        <v>1975.26</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1569.640000</v>
+        <v>-1569.64</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>5407.736547</v>
+        <v>5407.7365470000004</v>
       </c>
       <c r="B14" s="1">
         <v>1.502149</v>
       </c>
       <c r="C14" s="1">
-        <v>902.596000</v>
+        <v>902.596</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.126000</v>
+        <v>-195.126</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>5418.501988</v>
@@ -3580,208 +3996,208 @@
         <v>1.505139</v>
       </c>
       <c r="H14" s="1">
-        <v>919.691000</v>
+        <v>919.69100000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.460000</v>
+        <v>-165.46</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>5428.987351</v>
+        <v>5428.9873509999998</v>
       </c>
       <c r="L14" s="1">
-        <v>1.508052</v>
+        <v>1.5080519999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>941.723000</v>
+        <v>941.72299999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.456000</v>
+        <v>-118.456</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>5439.532760</v>
+        <v>5439.5327600000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.510981</v>
+        <v>1.5109809999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.296000</v>
+        <v>948.29600000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.182000</v>
+        <v>-103.182</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>5450.062325</v>
+        <v>5450.0623249999999</v>
       </c>
       <c r="V14" s="1">
         <v>1.513906</v>
       </c>
       <c r="W14" s="1">
-        <v>954.702000</v>
+        <v>954.702</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.491000</v>
+        <v>-89.491</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>5460.915053</v>
+        <v>5460.9150529999997</v>
       </c>
       <c r="AA14" s="1">
         <v>1.516921</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.833000</v>
+        <v>961.83299999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.028700</v>
+        <v>-80.028700000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>5471.076827</v>
+        <v>5471.0768269999999</v>
       </c>
       <c r="AF14" s="1">
         <v>1.519744</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.818000</v>
+        <v>966.81799999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.532800</v>
+        <v>-79.532799999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>5481.514141</v>
+        <v>5481.5141409999997</v>
       </c>
       <c r="AK14" s="1">
         <v>1.522643</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.777000</v>
+        <v>974.77700000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.289000</v>
+        <v>-87.289000000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>5492.326958</v>
+        <v>5492.3269579999996</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.525646</v>
+        <v>1.5256460000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.974000</v>
+        <v>983.97400000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.070000</v>
+        <v>-102.07</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>5503.743342</v>
+        <v>5503.7433419999998</v>
       </c>
       <c r="AU14" s="1">
         <v>1.528818</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.364000</v>
+        <v>995.36400000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.432000</v>
+        <v>-123.432</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>5514.809584</v>
+        <v>5514.8095839999996</v>
       </c>
       <c r="AZ14" s="1">
         <v>1.531892</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.960000</v>
+        <v>1004.96</v>
       </c>
       <c r="BB14" s="1">
-        <v>-141.988000</v>
+        <v>-141.988</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>5525.873345</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.534965</v>
+        <v>1.5349649999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.980000</v>
+        <v>1049.98</v>
       </c>
       <c r="BG14" s="1">
-        <v>-225.967000</v>
+        <v>-225.96700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>5536.770948</v>
+        <v>5536.7709480000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.537992</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.640000</v>
+        <v>1128.6400000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.898000</v>
+        <v>-360.89800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>5547.576821</v>
+        <v>5547.5768209999997</v>
       </c>
       <c r="BO14" s="1">
         <v>1.540994</v>
       </c>
       <c r="BP14" s="1">
-        <v>1258.890000</v>
+        <v>1258.8900000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-569.860000</v>
+        <v>-569.86</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>5558.451078</v>
+        <v>5558.4510780000001</v>
       </c>
       <c r="BT14" s="1">
         <v>1.544014</v>
       </c>
       <c r="BU14" s="1">
-        <v>1405.750000</v>
+        <v>1405.75</v>
       </c>
       <c r="BV14" s="1">
-        <v>-793.607000</v>
+        <v>-793.60699999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>5569.652728</v>
@@ -3790,589 +4206,589 @@
         <v>1.547126</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1566.930000</v>
+        <v>1566.93</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1026.000000</v>
+        <v>-1026</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>5581.857783</v>
+        <v>5581.8577830000004</v>
       </c>
       <c r="CD14" s="1">
         <v>1.550516</v>
       </c>
       <c r="CE14" s="1">
-        <v>1974.400000</v>
+        <v>1974.4</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1569.740000</v>
+        <v>-1569.74</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>5408.075982</v>
+        <v>5408.0759820000003</v>
       </c>
       <c r="B15" s="1">
         <v>1.502243</v>
       </c>
       <c r="C15" s="1">
-        <v>902.571000</v>
+        <v>902.57100000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.245000</v>
+        <v>-195.245</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>5418.845120</v>
+        <v>5418.84512</v>
       </c>
       <c r="G15" s="1">
-        <v>1.505235</v>
+        <v>1.5052350000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>919.449000</v>
+        <v>919.44899999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.395000</v>
+        <v>-165.39500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>5429.332033</v>
+        <v>5429.3320329999997</v>
       </c>
       <c r="L15" s="1">
         <v>1.508148</v>
       </c>
       <c r="M15" s="1">
-        <v>941.716000</v>
+        <v>941.71600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.418000</v>
+        <v>-118.41800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>5440.225666</v>
+        <v>5440.2256660000003</v>
       </c>
       <c r="Q15" s="1">
         <v>1.511174</v>
       </c>
       <c r="R15" s="1">
-        <v>948.285000</v>
+        <v>948.28499999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.184000</v>
+        <v>-103.184</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>5450.779540</v>
+        <v>5450.7795400000005</v>
       </c>
       <c r="V15" s="1">
         <v>1.514105</v>
       </c>
       <c r="W15" s="1">
-        <v>954.658000</v>
+        <v>954.65800000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.433600</v>
+        <v>-89.433599999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>5461.266950</v>
+        <v>5461.2669500000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.517019</v>
+        <v>1.5170189999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.905000</v>
+        <v>961.90499999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.045300</v>
+        <v>-80.045299999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>5471.420089</v>
+        <v>5471.4200890000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.519839</v>
+        <v>1.5198389999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.846000</v>
+        <v>966.846</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.538400</v>
+        <v>-79.538399999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>5481.864813</v>
+        <v>5481.8648130000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.522740</v>
+        <v>1.52274</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.754000</v>
+        <v>974.75400000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.264700</v>
+        <v>-87.264700000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>5493.002477</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.525834</v>
+        <v>1.5258339999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.970000</v>
+        <v>983.97</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.051000</v>
+        <v>-102.051</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>5504.189742</v>
+        <v>5504.1897419999996</v>
       </c>
       <c r="AU15" s="1">
         <v>1.528942</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.371000</v>
+        <v>995.37099999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.405000</v>
+        <v>-123.405</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>5515.217295</v>
+        <v>5515.2172950000004</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.532005</v>
+        <v>1.5320050000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.970000</v>
+        <v>1004.97</v>
       </c>
       <c r="BB15" s="1">
-        <v>-141.988000</v>
+        <v>-141.988</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>5526.234433</v>
+        <v>5526.2344329999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.535065</v>
+        <v>1.5350649999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG15" s="1">
-        <v>-225.993000</v>
+        <v>-225.99299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>5537.152867</v>
+        <v>5537.1528669999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>1.538098</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.910000</v>
+        <v>-360.91</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>5547.973920</v>
+        <v>5547.9739200000004</v>
       </c>
       <c r="BO15" s="1">
         <v>1.541104</v>
       </c>
       <c r="BP15" s="1">
-        <v>1258.890000</v>
+        <v>1258.8900000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-569.822000</v>
+        <v>-569.822</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>5558.871719</v>
+        <v>5558.8717189999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.544131</v>
+        <v>1.5441309999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1405.680000</v>
+        <v>1405.68</v>
       </c>
       <c r="BV15" s="1">
-        <v>-793.567000</v>
+        <v>-793.56700000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>5570.061927</v>
+        <v>5570.0619269999997</v>
       </c>
       <c r="BY15" s="1">
         <v>1.547239</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1566.850000</v>
+        <v>1566.85</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1026.040000</v>
+        <v>-1026.04</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>5582.386023</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.550663</v>
+        <v>1.5506629999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1975.600000</v>
+        <v>1975.6</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1568.980000</v>
+        <v>-1568.98</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>5408.419215</v>
+        <v>5408.4192149999999</v>
       </c>
       <c r="B16" s="1">
-        <v>1.502339</v>
+        <v>1.5023390000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>902.801000</v>
+        <v>902.80100000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.028000</v>
+        <v>-195.02799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>5419.535550</v>
+        <v>5419.5355499999996</v>
       </c>
       <c r="G16" s="1">
-        <v>1.505427</v>
+        <v>1.5054270000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>919.784000</v>
+        <v>919.78399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.581000</v>
+        <v>-165.58099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>5430.027424</v>
+        <v>5430.0274239999999</v>
       </c>
       <c r="L16" s="1">
-        <v>1.508341</v>
+        <v>1.5083409999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.750000</v>
+        <v>941.75</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.443000</v>
+        <v>-118.443</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>5440.575346</v>
+        <v>5440.5753459999996</v>
       </c>
       <c r="Q16" s="1">
         <v>1.511271</v>
       </c>
       <c r="R16" s="1">
-        <v>948.283000</v>
+        <v>948.28300000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.186000</v>
+        <v>-103.18600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>5451.108388</v>
+        <v>5451.1083879999996</v>
       </c>
       <c r="V16" s="1">
         <v>1.514197</v>
       </c>
       <c r="W16" s="1">
-        <v>954.707000</v>
+        <v>954.70699999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.541400</v>
+        <v>-89.541399999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>5461.616134</v>
+        <v>5461.6161339999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.517116</v>
+        <v>1.5171159999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.833000</v>
+        <v>961.83299999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.964200</v>
+        <v>-79.964200000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>5472.068857</v>
+        <v>5472.0688570000002</v>
       </c>
       <c r="AF16" s="1">
         <v>1.520019</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.834000</v>
+        <v>966.83399999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.568800</v>
+        <v>-79.568799999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>5482.515067</v>
+        <v>5482.5150670000003</v>
       </c>
       <c r="AK16" s="1">
         <v>1.522921</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.744000</v>
+        <v>974.74400000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.253900</v>
+        <v>-87.253900000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>5493.406253</v>
+        <v>5493.4062530000001</v>
       </c>
       <c r="AP16" s="1">
         <v>1.525946</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.989000</v>
+        <v>983.98900000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.069000</v>
+        <v>-102.069</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>5504.553805</v>
+        <v>5504.5538049999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.529043</v>
+        <v>1.5290429999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.340000</v>
+        <v>995.34</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.427000</v>
+        <v>-123.42700000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>5515.603215</v>
+        <v>5515.6032150000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1.532112</v>
+        <v>1.5321119999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.990000</v>
+        <v>1004.99</v>
       </c>
       <c r="BB16" s="1">
-        <v>-141.984000</v>
+        <v>-141.98400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>5526.594561</v>
+        <v>5526.5945609999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.535165</v>
+        <v>1.5351649999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG16" s="1">
-        <v>-225.973000</v>
+        <v>-225.97300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>5537.571523</v>
+        <v>5537.5715229999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>1.538214</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.942000</v>
+        <v>-360.94200000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>5548.404611</v>
+        <v>5548.4046109999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.541224</v>
+        <v>1.5412239999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1258.880000</v>
+        <v>1258.8800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-569.856000</v>
+        <v>-569.85599999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>5559.283365</v>
+        <v>5559.2833650000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.544245</v>
+        <v>1.5442450000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="BV16" s="1">
-        <v>-793.659000</v>
+        <v>-793.65899999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>5570.507371</v>
+        <v>5570.5073709999997</v>
       </c>
       <c r="BY16" s="1">
         <v>1.547363</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1566.800000</v>
+        <v>1566.8</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1026.090000</v>
+        <v>-1026.0899999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>5582.906821</v>
+        <v>5582.9068209999996</v>
       </c>
       <c r="CD16" s="1">
         <v>1.550807</v>
       </c>
       <c r="CE16" s="1">
-        <v>1975.100000</v>
+        <v>1975.1</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1567.910000</v>
+        <v>-1567.91</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>5409.100748</v>
+        <v>5409.1007479999998</v>
       </c>
       <c r="B17" s="1">
-        <v>1.502528</v>
+        <v>1.5025280000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>902.506000</v>
+        <v>902.50599999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.032000</v>
+        <v>-195.03200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>5419.877789</v>
+        <v>5419.8777890000001</v>
       </c>
       <c r="G17" s="1">
         <v>1.505522</v>
       </c>
       <c r="H17" s="1">
-        <v>919.622000</v>
+        <v>919.62199999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.443000</v>
+        <v>-165.44300000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>5430.373631</v>
+        <v>5430.3736310000004</v>
       </c>
       <c r="L17" s="1">
         <v>1.508437</v>
       </c>
       <c r="M17" s="1">
-        <v>941.675000</v>
+        <v>941.67499999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.425000</v>
+        <v>-118.425</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>5440.924035</v>
@@ -4381,285 +4797,285 @@
         <v>1.511368</v>
       </c>
       <c r="R17" s="1">
-        <v>948.275000</v>
+        <v>948.27499999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.174000</v>
+        <v>-103.17400000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>5451.765095</v>
+        <v>5451.7650949999997</v>
       </c>
       <c r="V17" s="1">
-        <v>1.514379</v>
+        <v>1.5143789999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>954.749000</v>
+        <v>954.74900000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.548900</v>
+        <v>-89.548900000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>5462.280277</v>
+        <v>5462.2802769999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.517300</v>
+        <v>1.5173000000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.842000</v>
+        <v>961.84199999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.039400</v>
+        <v>-80.039400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>5472.453225</v>
+        <v>5472.4532250000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.520126</v>
+        <v>1.5201260000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.831000</v>
+        <v>966.83100000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.556800</v>
+        <v>-79.556799999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>5482.910907</v>
+        <v>5482.9109070000004</v>
       </c>
       <c r="AK17" s="1">
         <v>1.523031</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.767000</v>
+        <v>974.76700000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.247900</v>
+        <v>-87.247900000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>5493.788637</v>
+        <v>5493.7886369999997</v>
       </c>
       <c r="AP17" s="1">
         <v>1.526052</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.964000</v>
+        <v>983.96400000000006</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.088000</v>
+        <v>-102.08799999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>5504.922333</v>
+        <v>5504.9223330000004</v>
       </c>
       <c r="AU17" s="1">
         <v>1.529145</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.350000</v>
+        <v>995.35</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.433000</v>
+        <v>-123.43300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>5515.965796</v>
+        <v>5515.9657960000004</v>
       </c>
       <c r="AZ17" s="1">
         <v>1.532213</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB17" s="1">
-        <v>-141.987000</v>
+        <v>-141.98699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>5527.002275</v>
+        <v>5527.0022749999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.535278</v>
+        <v>1.5352779999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG17" s="1">
-        <v>-225.961000</v>
+        <v>-225.96100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>5537.928145</v>
+        <v>5537.9281449999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>1.538313</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.640000</v>
+        <v>1128.6400000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.894000</v>
+        <v>-360.89400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>5548.788515</v>
+        <v>5548.7885150000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>1.541330</v>
+        <v>1.5413300000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1258.920000</v>
+        <v>1258.92</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-569.855000</v>
+        <v>-569.85500000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>5559.695076</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.544360</v>
+        <v>1.54436</v>
       </c>
       <c r="BU17" s="1">
-        <v>1405.570000</v>
+        <v>1405.57</v>
       </c>
       <c r="BV17" s="1">
-        <v>-793.667000</v>
+        <v>-793.66700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>5570.942326</v>
+        <v>5570.9423260000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.547484</v>
+        <v>1.5474840000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1566.910000</v>
+        <v>1566.91</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1026.120000</v>
+        <v>-1026.1199999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>5583.424149</v>
+        <v>5583.4241490000004</v>
       </c>
       <c r="CD17" s="1">
         <v>1.550951</v>
       </c>
       <c r="CE17" s="1">
-        <v>1973.450000</v>
+        <v>1973.45</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1568.710000</v>
+        <v>-1568.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>5409.442955</v>
+        <v>5409.4429550000004</v>
       </c>
       <c r="B18" s="1">
         <v>1.502623</v>
       </c>
       <c r="C18" s="1">
-        <v>902.635000</v>
+        <v>902.63499999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.150000</v>
+        <v>-195.15</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5420.224531</v>
+        <v>5420.2245309999998</v>
       </c>
       <c r="G18" s="1">
-        <v>1.505618</v>
+        <v>1.5056179999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>919.509000</v>
+        <v>919.50900000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.172000</v>
+        <v>-165.172</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>5430.716399</v>
+        <v>5430.7163989999999</v>
       </c>
       <c r="L18" s="1">
         <v>1.508532</v>
       </c>
       <c r="M18" s="1">
-        <v>941.867000</v>
+        <v>941.86699999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.479000</v>
+        <v>-118.479</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>5441.586193</v>
+        <v>5441.5861930000001</v>
       </c>
       <c r="Q18" s="1">
         <v>1.511552</v>
       </c>
       <c r="R18" s="1">
-        <v>948.305000</v>
+        <v>948.30499999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>5452.139603</v>
+        <v>5452.1396029999996</v>
       </c>
       <c r="V18" s="1">
         <v>1.514483</v>
       </c>
       <c r="W18" s="1">
-        <v>954.722000</v>
+        <v>954.72199999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.523500</v>
+        <v>-89.523499999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>5462.662198</v>
@@ -4668,13 +5084,13 @@
         <v>1.517406</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.846000</v>
+        <v>961.846</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.994800</v>
+        <v>-79.994799999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>5472.795959</v>
@@ -4683,73 +5099,73 @@
         <v>1.520221</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.828000</v>
+        <v>966.82799999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.556500</v>
+        <v>-79.5565</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>5483.264025</v>
+        <v>5483.2640250000004</v>
       </c>
       <c r="AK18" s="1">
         <v>1.523129</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.766000</v>
+        <v>974.76599999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.249900</v>
+        <v>-87.249899999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>5494.148235</v>
+        <v>5494.1482349999997</v>
       </c>
       <c r="AP18" s="1">
         <v>1.526152</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.983000</v>
+        <v>983.98299999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>5505.336524</v>
+        <v>5505.3365240000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.529260</v>
+        <v>1.5292600000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.365000</v>
+        <v>995.36500000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.434000</v>
+        <v>-123.434</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>5516.382398</v>
+        <v>5516.3823979999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.532328</v>
+        <v>1.5323279999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB18" s="1">
-        <v>-141.994000</v>
+        <v>-141.994</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>5527.317728</v>
@@ -4758,58 +5174,58 @@
         <v>1.535366</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG18" s="1">
-        <v>-225.961000</v>
+        <v>-225.96100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>5538.303617</v>
+        <v>5538.3036169999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.538418</v>
+        <v>1.5384180000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.640000</v>
+        <v>1128.6400000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.919000</v>
+        <v>-360.91899999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>5549.211602</v>
+        <v>5549.2116020000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.541448</v>
+        <v>1.5414479999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1258.930000</v>
+        <v>1258.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-569.886000</v>
+        <v>-569.88599999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>5560.113172</v>
+        <v>5560.1131720000003</v>
       </c>
       <c r="BT18" s="1">
         <v>1.544476</v>
       </c>
       <c r="BU18" s="1">
-        <v>1405.600000</v>
+        <v>1405.6</v>
       </c>
       <c r="BV18" s="1">
-        <v>-793.590000</v>
+        <v>-793.59</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>5571.363429</v>
@@ -4818,769 +5234,769 @@
         <v>1.547601</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1566.830000</v>
+        <v>1566.83</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1026.030000</v>
+        <v>-1026.03</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>5583.932549</v>
+        <v>5583.9325490000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.551092</v>
+        <v>1.5510919999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.260000</v>
+        <v>1974.26</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1568.220000</v>
+        <v>-1568.22</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>5409.786683</v>
+        <v>5409.7866830000003</v>
       </c>
       <c r="B19" s="1">
-        <v>1.502719</v>
+        <v>1.5027189999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.606000</v>
+        <v>902.60599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.050000</v>
+        <v>-195.05</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>5420.868523</v>
+        <v>5420.8685230000001</v>
       </c>
       <c r="G19" s="1">
-        <v>1.505797</v>
+        <v>1.5057970000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.540000</v>
+        <v>919.54</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.457000</v>
+        <v>-165.45699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>5431.365657</v>
+        <v>5431.3656570000003</v>
       </c>
       <c r="L19" s="1">
         <v>1.508713</v>
       </c>
       <c r="M19" s="1">
-        <v>941.733000</v>
+        <v>941.73299999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.391000</v>
+        <v>-118.39100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>5441.970593</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.511658</v>
+        <v>1.5116579999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>948.303000</v>
+        <v>948.303</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.173000</v>
+        <v>-103.173</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>5452.484290</v>
+        <v>5452.4842900000003</v>
       </c>
       <c r="V19" s="1">
-        <v>1.514579</v>
+        <v>1.5145789999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>954.681000</v>
+        <v>954.68100000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.482300</v>
+        <v>-89.482299999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>5463.012868</v>
+        <v>5463.0128679999998</v>
       </c>
       <c r="AA19" s="1">
         <v>1.517504</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.830000</v>
+        <v>961.83</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.950200</v>
+        <v>-79.950199999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>5473.141175</v>
+        <v>5473.1411749999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.520317</v>
+        <v>1.5203169999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.826000</v>
+        <v>966.82600000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.515400</v>
+        <v>-79.5154</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>5483.613010</v>
+        <v>5483.61301</v>
       </c>
       <c r="AK19" s="1">
         <v>1.523226</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.763000</v>
+        <v>974.76300000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.275100</v>
+        <v>-87.275099999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>5494.566858</v>
+        <v>5494.5668580000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.526269</v>
+        <v>1.5262690000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.958000</v>
+        <v>983.95799999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.080000</v>
+        <v>-102.08</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>5505.649500</v>
+        <v>5505.6495000000004</v>
       </c>
       <c r="AU19" s="1">
         <v>1.529347</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.348000</v>
+        <v>995.34799999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.432000</v>
+        <v>-123.432</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>5516.684461</v>
+        <v>5516.6844609999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.532412</v>
+        <v>1.5324120000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.000000</v>
+        <v>1005</v>
       </c>
       <c r="BB19" s="1">
-        <v>-141.991000</v>
+        <v>-141.99100000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>5527.678319</v>
+        <v>5527.6783189999996</v>
       </c>
       <c r="BE19" s="1">
         <v>1.535466</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.990000</v>
+        <v>1049.99</v>
       </c>
       <c r="BG19" s="1">
-        <v>-225.953000</v>
+        <v>-225.953</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>5538.687490</v>
+        <v>5538.6874900000003</v>
       </c>
       <c r="BJ19" s="1">
         <v>1.538524</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.914000</v>
+        <v>-360.91399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>5549.607085</v>
+        <v>5549.6070849999996</v>
       </c>
       <c r="BO19" s="1">
         <v>1.541558</v>
       </c>
       <c r="BP19" s="1">
-        <v>1258.850000</v>
+        <v>1258.8499999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-569.848000</v>
+        <v>-569.84799999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>5560.529844</v>
+        <v>5560.5298439999997</v>
       </c>
       <c r="BT19" s="1">
         <v>1.544592</v>
       </c>
       <c r="BU19" s="1">
-        <v>1405.620000</v>
+        <v>1405.62</v>
       </c>
       <c r="BV19" s="1">
-        <v>-793.587000</v>
+        <v>-793.58699999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>5571.781593</v>
+        <v>5571.7815929999997</v>
       </c>
       <c r="BY19" s="1">
         <v>1.547717</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1566.760000</v>
+        <v>1566.76</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1025.990000</v>
+        <v>-1025.99</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>5584.492532</v>
+        <v>5584.4925320000002</v>
       </c>
       <c r="CD19" s="1">
         <v>1.551248</v>
       </c>
       <c r="CE19" s="1">
-        <v>1974.710000</v>
+        <v>1974.71</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1567.390000</v>
+        <v>-1567.39</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>5410.437434</v>
+        <v>5410.4374340000004</v>
       </c>
       <c r="B20" s="1">
         <v>1.502899</v>
       </c>
       <c r="C20" s="1">
-        <v>902.676000</v>
+        <v>902.67600000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.950000</v>
+        <v>-194.95</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>5421.256667</v>
+        <v>5421.2566669999997</v>
       </c>
       <c r="G20" s="1">
         <v>1.505905</v>
       </c>
       <c r="H20" s="1">
-        <v>919.988000</v>
+        <v>919.98800000000006</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.158000</v>
+        <v>-165.15799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>5431.755021</v>
+        <v>5431.7550209999999</v>
       </c>
       <c r="L20" s="1">
         <v>1.508821</v>
       </c>
       <c r="M20" s="1">
-        <v>941.484000</v>
+        <v>941.48400000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.335000</v>
+        <v>-118.33499999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>5442.319813</v>
+        <v>5442.3198130000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.511756</v>
+        <v>1.5117560000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>948.268000</v>
+        <v>948.26800000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.182000</v>
+        <v>-103.182</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>5452.827059</v>
+        <v>5452.8270590000002</v>
       </c>
       <c r="V20" s="1">
-        <v>1.514674</v>
+        <v>1.5146740000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>954.707000</v>
+        <v>954.70699999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.485700</v>
+        <v>-89.485699999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>5463.361060</v>
+        <v>5463.3610600000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.517600</v>
+        <v>1.5176000000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.806000</v>
+        <v>961.80600000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.965700</v>
+        <v>-79.965699999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>5473.560294</v>
+        <v>5473.5602939999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.520433</v>
+        <v>1.5204329999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.816000</v>
+        <v>966.81600000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.523800</v>
+        <v>-79.523799999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>5484.036296</v>
+        <v>5484.0362960000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.523343</v>
+        <v>1.5233429999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.766000</v>
+        <v>974.76599999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.239900</v>
+        <v>-87.239900000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>5494.868954</v>
+        <v>5494.8689539999996</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.526352</v>
+        <v>1.5263519999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.991000</v>
+        <v>983.99099999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.080000</v>
+        <v>-102.08</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>5506.013036</v>
+        <v>5506.0130360000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.529448</v>
+        <v>1.5294479999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.358000</v>
+        <v>995.35799999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.419000</v>
+        <v>-123.419</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>5517.039598</v>
+        <v>5517.0395980000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>1.532511</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.000000</v>
+        <v>1005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-141.988000</v>
+        <v>-141.988</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>5528.040366</v>
+        <v>5528.0403660000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.535567</v>
+        <v>1.5355669999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG20" s="1">
-        <v>-225.957000</v>
+        <v>-225.95699999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>5539.450335</v>
+        <v>5539.4503350000005</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.538736</v>
+        <v>1.5387360000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.670000</v>
+        <v>1128.67</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.907000</v>
+        <v>-360.90699999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>5550.033473</v>
+        <v>5550.0334730000004</v>
       </c>
       <c r="BO20" s="1">
         <v>1.541676</v>
       </c>
       <c r="BP20" s="1">
-        <v>1258.870000</v>
+        <v>1258.8699999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-569.889000</v>
+        <v>-569.88900000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>5560.945955</v>
+        <v>5560.9459550000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.544707</v>
+        <v>1.5447070000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1405.550000</v>
+        <v>1405.55</v>
       </c>
       <c r="BV20" s="1">
-        <v>-793.578000</v>
+        <v>-793.57799999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>5572.211093</v>
+        <v>5572.2110929999999</v>
       </c>
       <c r="BY20" s="1">
         <v>1.547836</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1566.880000</v>
+        <v>1566.88</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1026.060000</v>
+        <v>-1026.06</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>5585.022259</v>
+        <v>5585.0222590000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.551395</v>
+        <v>1.5513950000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1973.810000</v>
+        <v>1973.81</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1569.080000</v>
+        <v>-1569.08</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>5410.810457</v>
+        <v>5410.8104569999996</v>
       </c>
       <c r="B21" s="1">
-        <v>1.503003</v>
+        <v>1.5030030000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>902.780000</v>
+        <v>902.78</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.205000</v>
+        <v>-195.20500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>5421.602875</v>
+        <v>5421.6028749999996</v>
       </c>
       <c r="G21" s="1">
-        <v>1.506001</v>
+        <v>1.5060009999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.568000</v>
+        <v>919.56799999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.189000</v>
+        <v>-165.18899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>5432.101007</v>
+        <v>5432.1010070000002</v>
       </c>
       <c r="L21" s="1">
-        <v>1.508917</v>
+        <v>1.5089170000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.689000</v>
+        <v>941.68899999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.450000</v>
+        <v>-118.45</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>5442.670447</v>
+        <v>5442.6704470000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.511853</v>
+        <v>1.5118529999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>948.235000</v>
+        <v>948.23500000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.159000</v>
+        <v>-103.15900000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>5453.250151</v>
+        <v>5453.2501510000002</v>
       </c>
       <c r="V21" s="1">
-        <v>1.514792</v>
+        <v>1.5147919999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>954.654000</v>
+        <v>954.654</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.537000</v>
+        <v>-89.537000000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>5463.787125</v>
+        <v>5463.7871249999998</v>
       </c>
       <c r="AA21" s="1">
         <v>1.517719</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.997000</v>
+        <v>961.99699999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.107300</v>
+        <v>-80.107299999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>5473.848966</v>
+        <v>5473.8489659999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.520514</v>
+        <v>1.5205139999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.814000</v>
+        <v>966.81399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.550600</v>
+        <v>-79.550600000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>5484.362931</v>
+        <v>5484.3629309999997</v>
       </c>
       <c r="AK21" s="1">
         <v>1.523434</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.778000</v>
+        <v>974.77800000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.275900</v>
+        <v>-87.275899999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>5495.233513</v>
+        <v>5495.2335130000001</v>
       </c>
       <c r="AP21" s="1">
         <v>1.526454</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.967000</v>
+        <v>983.96699999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.072000</v>
+        <v>-102.072</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>5506.379580</v>
+        <v>5506.3795799999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.529550</v>
+        <v>1.52955</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.358000</v>
+        <v>995.35799999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.409000</v>
+        <v>-123.40900000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>5517.398737</v>
+        <v>5517.3987370000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.532611</v>
+        <v>1.5326109999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.990000</v>
+        <v>1004.99</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.002000</v>
+        <v>-142.00200000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>5528.762045</v>
+        <v>5528.7620450000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.535767</v>
+        <v>1.5357670000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.990000</v>
+        <v>1049.99</v>
       </c>
       <c r="BG21" s="1">
-        <v>-225.976000</v>
+        <v>-225.976</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>5539.825312</v>
+        <v>5539.8253119999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.538840</v>
+        <v>1.53884</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.670000</v>
+        <v>1128.67</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.891000</v>
+        <v>-360.89100000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>5550.472929</v>
+        <v>5550.4729289999996</v>
       </c>
       <c r="BO21" s="1">
         <v>1.541798</v>
       </c>
       <c r="BP21" s="1">
-        <v>1258.910000</v>
+        <v>1258.9100000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-569.897000</v>
+        <v>-569.89700000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>5561.361138</v>
+        <v>5561.3611380000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.544823</v>
+        <v>1.5448230000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1405.550000</v>
+        <v>1405.55</v>
       </c>
       <c r="BV21" s="1">
-        <v>-793.649000</v>
+        <v>-793.649</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>5572.929795</v>
@@ -5589,13 +6005,13 @@
         <v>1.548036</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1566.820000</v>
+        <v>1566.82</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1025.990000</v>
+        <v>-1025.99</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>5585.539624</v>
@@ -5604,16 +6020,16 @@
         <v>1.551539</v>
       </c>
       <c r="CE21" s="1">
-        <v>1975.960000</v>
+        <v>1975.96</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1568.980000</v>
+        <v>-1568.98</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>5411.154681</v>
       </c>
@@ -5621,103 +6037,103 @@
         <v>1.503099</v>
       </c>
       <c r="C22" s="1">
-        <v>902.659000</v>
+        <v>902.65899999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.978000</v>
+        <v>-194.97800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>5421.947099</v>
       </c>
       <c r="G22" s="1">
-        <v>1.506096</v>
+        <v>1.5060960000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>919.772000</v>
+        <v>919.77200000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.918000</v>
+        <v>-164.91800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>5432.444456</v>
+        <v>5432.4444560000002</v>
       </c>
       <c r="L22" s="1">
         <v>1.509012</v>
       </c>
       <c r="M22" s="1">
-        <v>941.715000</v>
+        <v>941.71500000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.498000</v>
+        <v>-118.498</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>5443.098000</v>
+        <v>5443.098</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.511972</v>
+        <v>1.5119720000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.293000</v>
+        <v>948.29300000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.165000</v>
+        <v>-103.16500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>5453.523904</v>
+        <v>5453.5239039999997</v>
       </c>
       <c r="V22" s="1">
-        <v>1.514868</v>
+        <v>1.5148680000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.684000</v>
+        <v>954.68399999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.522700</v>
+        <v>-89.5227</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>5464.068357</v>
+        <v>5464.0683570000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.517797</v>
+        <v>1.5177970000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.877000</v>
+        <v>961.87699999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.849400</v>
+        <v>-79.849400000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>5474.192728</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.520609</v>
+        <v>1.5206090000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.799000</v>
+        <v>966.79899999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.551900</v>
+        <v>-79.551900000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>5484.680104</v>
@@ -5726,13 +6142,13 @@
         <v>1.523522</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.757000</v>
+        <v>974.75699999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.261400</v>
+        <v>-87.261399999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>5495.592122</v>
@@ -5741,512 +6157,512 @@
         <v>1.526553</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.972000</v>
+        <v>983.97199999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.059000</v>
+        <v>-102.059</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>5507.107738</v>
+        <v>5507.1077379999997</v>
       </c>
       <c r="AU22" s="1">
         <v>1.529752</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.347000</v>
+        <v>995.34699999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.428000</v>
+        <v>-123.428</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>5518.118397</v>
+        <v>5518.1183970000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.532811</v>
+        <v>1.5328109999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.970000</v>
+        <v>1004.97</v>
       </c>
       <c r="BB22" s="1">
-        <v>-141.974000</v>
+        <v>-141.97399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>5529.154876</v>
+        <v>5529.1548759999996</v>
       </c>
       <c r="BE22" s="1">
         <v>1.535876</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.980000</v>
+        <v>1049.98</v>
       </c>
       <c r="BG22" s="1">
-        <v>-225.973000</v>
+        <v>-225.97300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>5540.202271</v>
+        <v>5540.2022710000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>1.538945</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.943000</v>
+        <v>-360.94299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>5550.839479</v>
+        <v>5550.8394790000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.541900</v>
+        <v>1.5419</v>
       </c>
       <c r="BP22" s="1">
-        <v>1258.930000</v>
+        <v>1258.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-569.888000</v>
+        <v>-569.88800000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>5562.090226</v>
+        <v>5562.0902260000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.545025</v>
+        <v>1.5450250000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1405.480000</v>
+        <v>1405.48</v>
       </c>
       <c r="BV22" s="1">
-        <v>-793.550000</v>
+        <v>-793.55</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>5573.075620</v>
+        <v>5573.0756199999996</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.548077</v>
+        <v>1.5480769999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1566.780000</v>
+        <v>1566.78</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1026.040000</v>
+        <v>-1026.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>5586.080225</v>
+        <v>5586.0802249999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.551689</v>
+        <v>1.5516890000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1974.370000</v>
+        <v>1974.37</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1568.190000</v>
+        <v>-1568.19</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>5411.491930</v>
+        <v>5411.4919300000001</v>
       </c>
       <c r="B23" s="1">
-        <v>1.503192</v>
+        <v>1.5031920000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>902.688000</v>
+        <v>902.68799999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.977000</v>
+        <v>-194.977</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>5422.363739</v>
+        <v>5422.3637390000004</v>
       </c>
       <c r="G23" s="1">
-        <v>1.506212</v>
+        <v>1.5062120000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.840000</v>
+        <v>919.84</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.464000</v>
+        <v>-165.464</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>5432.861564</v>
+        <v>5432.8615639999998</v>
       </c>
       <c r="L23" s="1">
         <v>1.509128</v>
       </c>
       <c r="M23" s="1">
-        <v>941.925000</v>
+        <v>941.92499999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.479000</v>
+        <v>-118.479</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>5443.375263</v>
+        <v>5443.3752629999999</v>
       </c>
       <c r="Q23" s="1">
         <v>1.512049</v>
       </c>
       <c r="R23" s="1">
-        <v>948.272000</v>
+        <v>948.27200000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.178000</v>
+        <v>-103.178</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>5453.864192</v>
       </c>
       <c r="V23" s="1">
-        <v>1.514962</v>
+        <v>1.5149619999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>954.693000</v>
+        <v>954.69299999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.532400</v>
+        <v>-89.532399999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>5464.414916</v>
+        <v>5464.4149159999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.517893</v>
+        <v>1.5178929999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.824000</v>
+        <v>961.82399999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.960900</v>
+        <v>-79.960899999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>5474.536949</v>
+        <v>5474.5369490000003</v>
       </c>
       <c r="AF23" s="1">
         <v>1.520705</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.844000</v>
+        <v>966.84400000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.543900</v>
+        <v>-79.543899999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>5485.379464</v>
+        <v>5485.3794639999996</v>
       </c>
       <c r="AK23" s="1">
         <v>1.523717</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.774000</v>
+        <v>974.774</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.283200</v>
+        <v>-87.283199999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>5496.309800</v>
+        <v>5496.3098</v>
       </c>
       <c r="AP23" s="1">
         <v>1.526753</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.959000</v>
+        <v>983.95899999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.071000</v>
+        <v>-102.071</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>5507.500041</v>
+        <v>5507.5000410000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.529861</v>
+        <v>1.5298609999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.362000</v>
+        <v>995.36199999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.416000</v>
+        <v>-123.416</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>5518.499323</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.532916</v>
+        <v>1.5329159999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.990000</v>
+        <v>1004.99</v>
       </c>
       <c r="BB23" s="1">
-        <v>-141.996000</v>
+        <v>-141.99600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>5529.514974</v>
+        <v>5529.5149739999997</v>
       </c>
       <c r="BE23" s="1">
         <v>1.535976</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG23" s="1">
-        <v>-225.967000</v>
+        <v>-225.96700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>5540.902653</v>
+        <v>5540.9026530000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.539140</v>
+        <v>1.53914</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.650000</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.919000</v>
+        <v>-360.91899999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>5551.584003</v>
+        <v>5551.5840029999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.542107</v>
+        <v>1.5421069999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1258.850000</v>
+        <v>1258.8499999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-569.909000</v>
+        <v>-569.90899999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>5562.210753</v>
+        <v>5562.2107530000003</v>
       </c>
       <c r="BT23" s="1">
         <v>1.545059</v>
       </c>
       <c r="BU23" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="BV23" s="1">
-        <v>-793.609000</v>
+        <v>-793.60900000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>5573.492786</v>
+        <v>5573.4927859999998</v>
       </c>
       <c r="BY23" s="1">
         <v>1.548192</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1566.660000</v>
+        <v>1566.66</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1026.140000</v>
+        <v>-1026.1400000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>5586.622353</v>
+        <v>5586.6223529999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.551840</v>
+        <v>1.5518400000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1974.760000</v>
+        <v>1974.76</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1570.020000</v>
+        <v>-1570.02</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>5411.914024</v>
+        <v>5411.9140239999997</v>
       </c>
       <c r="B24" s="1">
         <v>1.503309</v>
       </c>
       <c r="C24" s="1">
-        <v>902.506000</v>
+        <v>902.50599999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.020000</v>
+        <v>-195.02</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5422.642025</v>
+        <v>5422.6420250000001</v>
       </c>
       <c r="G24" s="1">
         <v>1.506289</v>
       </c>
       <c r="H24" s="1">
-        <v>919.734000</v>
+        <v>919.73400000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.492000</v>
+        <v>-165.49199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>5433.155197</v>
       </c>
       <c r="L24" s="1">
-        <v>1.509210</v>
+        <v>1.5092099999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>941.591000</v>
+        <v>941.59100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.478000</v>
+        <v>-118.47799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>5443.722462</v>
+        <v>5443.7224619999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.512145</v>
+        <v>1.5121450000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>948.282000</v>
+        <v>948.28200000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>5454.207888</v>
+        <v>5454.2078879999999</v>
       </c>
       <c r="V24" s="1">
         <v>1.515058</v>
       </c>
       <c r="W24" s="1">
-        <v>954.685000</v>
+        <v>954.68499999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.490000</v>
+        <v>-89.49</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>5464.763250</v>
+        <v>5464.76325</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.517990</v>
+        <v>1.51799</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.976000</v>
+        <v>961.976</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.965100</v>
+        <v>-79.965100000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>5475.222388</v>
+        <v>5475.2223880000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.520895</v>
+        <v>1.5208950000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.828000</v>
+        <v>966.82799999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.520300</v>
+        <v>-79.520300000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>5485.725202</v>
+        <v>5485.7252019999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.523813</v>
+        <v>1.5238130000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.788000</v>
+        <v>974.78800000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.243800</v>
+        <v>-87.243799999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>5496.670392</v>
@@ -6255,13 +6671,13 @@
         <v>1.526853</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.994000</v>
+        <v>983.99400000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>5507.863609</v>
@@ -6270,135 +6686,135 @@
         <v>1.529962</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.344000</v>
+        <v>995.34400000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.432000</v>
+        <v>-123.432</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>5519.186315</v>
+        <v>5519.1863149999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>1.533107</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.990000</v>
+        <v>1004.99</v>
       </c>
       <c r="BB24" s="1">
-        <v>-141.983000</v>
+        <v>-141.983</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>5530.178657</v>
+        <v>5530.1786570000004</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.536161</v>
+        <v>1.5361610000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.990000</v>
+        <v>1049.99</v>
       </c>
       <c r="BG24" s="1">
-        <v>-225.979000</v>
+        <v>-225.97900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>5541.350012</v>
+        <v>5541.3500119999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>1.539264</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.660000</v>
+        <v>1128.6600000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.908000</v>
+        <v>-360.90800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>5552.089888</v>
+        <v>5552.0898880000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.542247</v>
+        <v>1.5422469999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1258.870000</v>
+        <v>1258.8699999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-569.891000</v>
+        <v>-569.89099999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>5562.626935</v>
+        <v>5562.6269350000002</v>
       </c>
       <c r="BT24" s="1">
         <v>1.545174</v>
       </c>
       <c r="BU24" s="1">
-        <v>1405.450000</v>
+        <v>1405.45</v>
       </c>
       <c r="BV24" s="1">
-        <v>-793.630000</v>
+        <v>-793.63</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>5573.922291</v>
+        <v>5573.9222909999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.548312</v>
+        <v>1.5483119999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1566.820000</v>
+        <v>1566.82</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1026.140000</v>
+        <v>-1026.1400000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>5587.159520</v>
+        <v>5587.1595200000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.551989</v>
+        <v>1.5519890000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1975.150000</v>
+        <v>1975.15</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1568.170000</v>
+        <v>-1568.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>5412.193271</v>
+        <v>5412.1932710000001</v>
       </c>
       <c r="B25" s="1">
         <v>1.503387</v>
       </c>
       <c r="C25" s="1">
-        <v>902.731000</v>
+        <v>902.73099999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.905000</v>
+        <v>-194.905</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>5422.988233</v>
@@ -6407,28 +6823,28 @@
         <v>1.506386</v>
       </c>
       <c r="H25" s="1">
-        <v>919.915000</v>
+        <v>919.91499999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.342000</v>
+        <v>-165.34200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>5433.502429</v>
+        <v>5433.5024290000001</v>
       </c>
       <c r="L25" s="1">
         <v>1.509306</v>
       </c>
       <c r="M25" s="1">
-        <v>941.704000</v>
+        <v>941.70399999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.239000</v>
+        <v>-118.239</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>5444.075151</v>
@@ -6437,118 +6853,118 @@
         <v>1.512243</v>
       </c>
       <c r="R25" s="1">
-        <v>948.272000</v>
+        <v>948.27200000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.186000</v>
+        <v>-103.18600000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>5454.896335</v>
+        <v>5454.8963350000004</v>
       </c>
       <c r="V25" s="1">
-        <v>1.515249</v>
+        <v>1.5152490000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>954.730000</v>
+        <v>954.73</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.483300</v>
+        <v>-89.4833</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>5465.460163</v>
+        <v>5465.4601629999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.518183</v>
+        <v>1.5181830000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.898000</v>
+        <v>961.89800000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.945600</v>
+        <v>-79.945599999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>5475.566643</v>
+        <v>5475.5666430000001</v>
       </c>
       <c r="AF25" s="1">
         <v>1.520991</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.842000</v>
+        <v>966.84199999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.532100</v>
+        <v>-79.5321</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>5486.076342</v>
+        <v>5486.0763420000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.523910</v>
+        <v>1.5239100000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.762000</v>
+        <v>974.76199999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.250900</v>
+        <v>-87.250900000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>5497.032471</v>
+        <v>5497.0324710000004</v>
       </c>
       <c r="AP25" s="1">
         <v>1.526953</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.986000</v>
+        <v>983.98599999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.054000</v>
+        <v>-102.054</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>5508.530759</v>
+        <v>5508.5307590000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.530147</v>
+        <v>1.5301469999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.372000</v>
+        <v>995.37199999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.444000</v>
+        <v>-123.444</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>5519.592505</v>
+        <v>5519.5925049999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>1.533220</v>
+        <v>1.53322</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB25" s="1">
-        <v>-141.990000</v>
+        <v>-141.99</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>5530.629981</v>
@@ -6557,347 +6973,348 @@
         <v>1.536286</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.010000</v>
+        <v>1050.01</v>
       </c>
       <c r="BG25" s="1">
-        <v>-225.956000</v>
+        <v>-225.95599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>5541.754748</v>
+        <v>5541.7547480000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.539376</v>
+        <v>1.5393760000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.680000</v>
+        <v>1128.68</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.913000</v>
+        <v>-360.91300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>5552.505534</v>
+        <v>5552.5055339999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.542363</v>
+        <v>1.5423629999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1258.870000</v>
+        <v>1258.8699999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-569.881000</v>
+        <v>-569.88099999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>5563.054963</v>
+        <v>5563.0549629999996</v>
       </c>
       <c r="BT25" s="1">
         <v>1.545293</v>
       </c>
       <c r="BU25" s="1">
-        <v>1405.410000</v>
+        <v>1405.41</v>
       </c>
       <c r="BV25" s="1">
-        <v>-793.578000</v>
+        <v>-793.57799999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>5574.334465</v>
+        <v>5574.3344649999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>1.548426</v>
+        <v>1.5484260000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1566.820000</v>
+        <v>1566.82</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1026.120000</v>
+        <v>-1026.1199999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>5587.700191</v>
+        <v>5587.7001909999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.552139</v>
+        <v>1.5521389999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1973.730000</v>
+        <v>1973.73</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1568.860000</v>
+        <v>-1568.86</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>5412.535512</v>
+        <v>5412.5355120000004</v>
       </c>
       <c r="B26" s="1">
         <v>1.503482</v>
       </c>
       <c r="C26" s="1">
-        <v>902.750000</v>
+        <v>902.75</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.077000</v>
+        <v>-195.077</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5423.334905</v>
+        <v>5423.3349049999997</v>
       </c>
       <c r="G26" s="1">
-        <v>1.506482</v>
+        <v>1.5064820000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.647000</v>
+        <v>919.64700000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.683000</v>
+        <v>-164.68299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>5433.850091</v>
+        <v>5433.8500910000002</v>
       </c>
       <c r="L26" s="1">
-        <v>1.509403</v>
+        <v>1.5094030000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>941.751000</v>
+        <v>941.75099999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.420000</v>
+        <v>-118.42</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>5444.769523</v>
+        <v>5444.7695229999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.512436</v>
+        <v>1.5124359999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.238000</v>
+        <v>948.23800000000006</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>5455.237583</v>
+        <v>5455.2375830000001</v>
       </c>
       <c r="V26" s="1">
         <v>1.515344</v>
       </c>
       <c r="W26" s="1">
-        <v>954.705000</v>
+        <v>954.70500000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.506800</v>
+        <v>-89.506799999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>5465.809344</v>
+        <v>5465.8093440000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.518280</v>
+        <v>1.5182800000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.828000</v>
+        <v>961.82799999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.004100</v>
+        <v>-80.004099999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>5475.910373</v>
+        <v>5475.9103729999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.521086</v>
+        <v>1.5210859999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.827000</v>
+        <v>966.827</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.555200</v>
+        <v>-79.555199999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>5486.731588</v>
+        <v>5486.7315879999996</v>
       </c>
       <c r="AK26" s="1">
         <v>1.524092</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.778000</v>
+        <v>974.77800000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.251200</v>
+        <v>-87.251199999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>5497.690664</v>
+        <v>5497.6906639999997</v>
       </c>
       <c r="AP26" s="1">
         <v>1.527136</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.988000</v>
+        <v>983.98800000000006</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>5508.991511</v>
+        <v>5508.9915110000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>1.530275</v>
+        <v>1.5302750000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.378000</v>
+        <v>995.37800000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.436000</v>
+        <v>-123.43600000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>5519.953626</v>
+        <v>5519.9536260000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.533320</v>
+        <v>1.53332</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.980000</v>
+        <v>1004.98</v>
       </c>
       <c r="BB26" s="1">
-        <v>-141.966000</v>
+        <v>-141.96600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>5530.989610</v>
+        <v>5530.9896099999996</v>
       </c>
       <c r="BE26" s="1">
         <v>1.536386</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.990000</v>
+        <v>1049.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-225.967000</v>
+        <v>-225.96700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>5542.131739</v>
+        <v>5542.1317390000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.539481</v>
+        <v>1.5394810000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.640000</v>
+        <v>1128.6400000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.909000</v>
+        <v>-360.90899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>5552.918243</v>
+        <v>5552.9182430000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.542477</v>
+        <v>1.5424770000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1258.900000</v>
+        <v>1258.9000000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-569.888000</v>
+        <v>-569.88800000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>5563.471583</v>
+        <v>5563.4715829999996</v>
       </c>
       <c r="BT26" s="1">
         <v>1.545409</v>
       </c>
       <c r="BU26" s="1">
-        <v>1405.400000</v>
+        <v>1405.4</v>
       </c>
       <c r="BV26" s="1">
-        <v>-793.591000</v>
+        <v>-793.59100000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>5574.793264</v>
+        <v>5574.7932639999999</v>
       </c>
       <c r="BY26" s="1">
         <v>1.548554</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1566.790000</v>
+        <v>1566.79</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1026.140000</v>
+        <v>-1026.1400000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>5588.240831</v>
+        <v>5588.2408310000001</v>
       </c>
       <c r="CD26" s="1">
         <v>1.552289</v>
       </c>
       <c r="CE26" s="1">
-        <v>1975.780000</v>
+        <v>1975.78</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1568.920000</v>
+        <v>-1568.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>